--- a/excelFile/skill.xlsx
+++ b/excelFile/skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,19 +40,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>化工技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酿酒技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耕种技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨艺技能</t>
+    <t>糕点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闽菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮扬菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徽菜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -463,6 +479,38 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excelFile/skill.xlsx
+++ b/excelFile/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="810" yWindow="1320" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="skillConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,10 @@
   </si>
   <si>
     <t>徽菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁菜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -476,7 +480,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -484,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -492,7 +496,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -500,7 +504,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -508,6 +512,14 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
